--- a/Self Assessment Form COM4510-COM6510.xlsx
+++ b/Self Assessment Form COM4510-COM6510.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Druid\Documents\CSSLPAutSem\SDfMD\com6510-mobile-devices-final-assignment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4B6920-68FA-47D6-A3F3-C51B994F164F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="14796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
   <si>
     <t>Comments</t>
   </si>
@@ -197,13 +203,31 @@
   </si>
   <si>
     <t>Code documentation: JavaDoc (in-line commenting, javadoc)</t>
+  </si>
+  <si>
+    <t>Mangesh Hemant Hambarde</t>
+  </si>
+  <si>
+    <t>Akshay Rajendra Deshpande</t>
+  </si>
+  <si>
+    <t>Wenbo Liu</t>
+  </si>
+  <si>
+    <t>Search for maps</t>
+  </si>
+  <si>
+    <t>Thumbnail list for maps</t>
+  </si>
+  <si>
+    <t>Other metadata, along with edit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -493,7 +517,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="26">
-    <cellStyle name="Default 1" xfId="1"/>
+    <cellStyle name="Default 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -590,6 +614,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -914,27 +946,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="25" style="7" customWidth="1"/>
     <col min="2" max="2" width="47.33203125" style="10" customWidth="1"/>
     <col min="3" max="3" width="45.33203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="15" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="33" customWidth="1"/>
-    <col min="6" max="6" width="55.83203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="26.83203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" style="33" customWidth="1"/>
+    <col min="6" max="6" width="55.77734375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="26.77734375" style="7" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" style="7" customWidth="1"/>
-    <col min="9" max="252" width="9.1640625" style="7" customWidth="1"/>
-    <col min="253" max="253" width="8.83203125" style="7"/>
-    <col min="254" max="254" width="9.1640625" style="7" customWidth="1"/>
-    <col min="255" max="16384" width="8.83203125" style="7"/>
+    <col min="9" max="252" width="9.109375" style="7" customWidth="1"/>
+    <col min="253" max="253" width="8.77734375" style="7"/>
+    <col min="254" max="254" width="9.109375" style="7" customWidth="1"/>
+    <col min="255" max="16384" width="8.77734375" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256">
@@ -956,7 +988,9 @@
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="C2" s="11"/>
       <c r="D2" s="19"/>
       <c r="E2" s="32"/>
@@ -971,7 +1005,9 @@
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="D3" s="19"/>
       <c r="E3" s="32"/>
@@ -986,7 +1022,9 @@
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="C4" s="11"/>
       <c r="D4" s="19"/>
       <c r="E4" s="32"/>
@@ -1006,7 +1044,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="2" customFormat="1" ht="17">
+    <row r="6" spans="1:256" s="2" customFormat="1" ht="18.600000000000001">
       <c r="A6" s="24"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -1017,7 +1055,7 @@
       <c r="IU6" s="7"/>
       <c r="IV6" s="7"/>
     </row>
-    <row r="7" spans="1:256" s="2" customFormat="1" ht="17">
+    <row r="7" spans="1:256" s="2" customFormat="1" ht="18.600000000000001">
       <c r="A7" s="24"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1028,11 +1066,11 @@
       <c r="IU7" s="7"/>
       <c r="IV7" s="7"/>
     </row>
-    <row r="8" spans="1:256" ht="17">
+    <row r="8" spans="1:256" ht="18.600000000000001">
       <c r="A8" s="23"/>
       <c r="E8" s="35"/>
     </row>
-    <row r="9" spans="1:256" s="8" customFormat="1" ht="136">
+    <row r="9" spans="1:256" s="8" customFormat="1" ht="167.4">
       <c r="A9" s="24" t="s">
         <v>8</v>
       </c>
@@ -1048,100 +1086,114 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" ht="17">
+    <row r="10" spans="1:256" ht="18.600000000000001">
       <c r="A10" s="23"/>
       <c r="E10" s="36"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:256" ht="17">
+    <row r="11" spans="1:256" ht="18.600000000000001">
       <c r="A11" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="37"/>
+      <c r="E11" s="37">
+        <v>5</v>
+      </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:256" ht="75">
+    <row r="12" spans="1:256" ht="94.2">
       <c r="A12" s="23"/>
       <c r="B12" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="E12" s="37"/>
-    </row>
-    <row r="13" spans="1:256" ht="90">
+      <c r="E12" s="37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:256" ht="94.8">
       <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="E13" s="37"/>
+      <c r="E13" s="37">
+        <v>3</v>
+      </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:256" ht="30">
+    <row r="14" spans="1:256" ht="32.4">
       <c r="A14" s="23"/>
       <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="E14" s="37"/>
+      <c r="E14" s="37">
+        <v>5</v>
+      </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:256" ht="45">
+    <row r="15" spans="1:256" ht="63.6">
       <c r="A15" s="23"/>
       <c r="B15" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="E15" s="37"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:256" ht="17">
+    <row r="16" spans="1:256" ht="18.600000000000001">
       <c r="A16" s="23"/>
+      <c r="E16" s="38"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="17">
+    <row r="17" spans="1:8" ht="18">
       <c r="A17" s="23"/>
-      <c r="E17" s="38"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="17">
+    <row r="18" spans="1:8" ht="18.600000000000001">
       <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="E18" s="36"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="17">
+    <row r="19" spans="1:8" ht="18.600000000000001">
       <c r="A19" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="36"/>
+      <c r="E19" s="37">
+        <v>5</v>
+      </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="27">
+    <row r="20" spans="1:8" ht="44.4">
       <c r="A20" s="26" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="37"/>
+      <c r="E20" s="37">
+        <v>5</v>
+      </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="17">
+    <row r="21" spans="1:8" ht="18.600000000000001">
       <c r="A21" s="28"/>
       <c r="B21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="37"/>
+      <c r="E21" s="37">
+        <v>5</v>
+      </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="40">
+    <row r="22" spans="1:8" ht="44.4">
       <c r="A22" s="30" t="s">
         <v>28</v>
       </c>
@@ -1149,56 +1201,64 @@
         <v>40</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="E22" s="37"/>
+      <c r="E22" s="37">
+        <v>5</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="30">
+    <row r="23" spans="1:8" ht="32.4">
       <c r="A23" s="23"/>
       <c r="B23" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="17"/>
-      <c r="E23" s="37"/>
+      <c r="E23" s="37">
+        <v>4</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="17">
+    <row r="24" spans="1:8" ht="18.600000000000001">
       <c r="A24" s="23"/>
       <c r="B24" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="17"/>
-      <c r="E24" s="37"/>
+      <c r="E24" s="37">
+        <v>4</v>
+      </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="17">
+    <row r="25" spans="1:8" ht="18.600000000000001">
       <c r="A25" s="23"/>
       <c r="B25" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="17"/>
-      <c r="E25" s="37"/>
+      <c r="E25" s="37">
+        <v>4</v>
+      </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="17">
+    <row r="26" spans="1:8" ht="18.600000000000001">
       <c r="A26" s="23"/>
       <c r="B26" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="17"/>
-      <c r="E26" s="37"/>
+      <c r="E26" s="31"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="17">
+    <row r="27" spans="1:8" ht="18.600000000000001">
       <c r="A27" s="23"/>
       <c r="B27" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="31"/>
+      <c r="E27" s="37"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="17">
+    <row r="28" spans="1:8" ht="18.600000000000001">
       <c r="A28" s="5"/>
       <c r="C28" s="5" t="s">
         <v>19</v>
@@ -1207,7 +1267,7 @@
       <c r="E28" s="37"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="17">
+    <row r="29" spans="1:8" ht="18.600000000000001">
       <c r="A29" s="23"/>
       <c r="C29" s="10" t="s">
         <v>16</v>
@@ -1216,7 +1276,7 @@
       <c r="E29" s="37"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="17">
+    <row r="30" spans="1:8" ht="18.600000000000001">
       <c r="A30" s="23"/>
       <c r="C30" s="5" t="s">
         <v>17</v>
@@ -1225,66 +1285,76 @@
       <c r="E30" s="37"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="17">
+    <row r="31" spans="1:8" ht="18.600000000000001">
       <c r="A31" s="23"/>
       <c r="C31" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="17"/>
-      <c r="E31" s="37"/>
+      <c r="E31" s="36"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="17">
-      <c r="E32" s="36"/>
+    <row r="32" spans="1:8" ht="18.600000000000001">
       <c r="G32" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="30">
+    <row r="33" spans="1:7" ht="16.2">
+      <c r="E33" s="39"/>
+    </row>
+    <row r="34" spans="1:7" ht="32.4">
       <c r="A34" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="39"/>
+      <c r="E34" s="37">
+        <v>5</v>
+      </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="17">
+    <row r="35" spans="1:7" ht="18.600000000000001">
       <c r="A35" s="43"/>
       <c r="B35" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="37"/>
+      <c r="E35" s="37">
+        <v>5</v>
+      </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="17">
+    <row r="36" spans="1:7" ht="18.600000000000001">
       <c r="A36" s="43"/>
       <c r="B36" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="37"/>
+      <c r="E36" s="37">
+        <v>5</v>
+      </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="17">
+    <row r="37" spans="1:7" ht="18.600000000000001">
       <c r="A37" s="23"/>
       <c r="B37" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="37"/>
+      <c r="E37" s="37">
+        <v>5</v>
+      </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="17">
+    <row r="38" spans="1:7" ht="18.600000000000001">
       <c r="A38" s="23"/>
       <c r="B38" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="37"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="17">
+    <row r="39" spans="1:7" ht="18.600000000000001">
       <c r="A39" s="23"/>
       <c r="B39" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="E39" s="37"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="17">
+    <row r="40" spans="1:7" ht="18.600000000000001">
       <c r="A40" s="5"/>
       <c r="C40" s="5" t="s">
         <v>19</v>
@@ -1292,7 +1362,7 @@
       <c r="E40" s="37"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" ht="17">
+    <row r="41" spans="1:7" ht="18.600000000000001">
       <c r="A41" s="23"/>
       <c r="C41" s="10" t="s">
         <v>16</v>
@@ -1300,7 +1370,7 @@
       <c r="E41" s="37"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="17">
+    <row r="42" spans="1:7" ht="18.600000000000001">
       <c r="A42" s="23"/>
       <c r="C42" s="5" t="s">
         <v>17</v>
@@ -1308,7 +1378,7 @@
       <c r="E42" s="37"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" ht="17">
+    <row r="43" spans="1:7" ht="18.600000000000001">
       <c r="A43" s="23"/>
       <c r="C43" s="5" t="s">
         <v>18</v>
@@ -1316,61 +1386,71 @@
       <c r="E43" s="37"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="27">
+    <row r="44" spans="1:7" ht="44.4">
       <c r="A44" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="37"/>
+      <c r="E44" s="37">
+        <v>5</v>
+      </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="17">
+    <row r="45" spans="1:7" ht="18.600000000000001">
       <c r="A45" s="42"/>
       <c r="B45" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="37"/>
+      <c r="E45" s="37">
+        <v>4</v>
+      </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="17">
+    <row r="46" spans="1:7" ht="18.600000000000001">
       <c r="A46" s="42"/>
       <c r="B46" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="37"/>
+      <c r="E46" s="37">
+        <v>5</v>
+      </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:7" ht="17">
+    <row r="47" spans="1:7" ht="18.600000000000001">
       <c r="A47" s="42"/>
       <c r="B47" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="37"/>
+      <c r="E47" s="37">
+        <v>4</v>
+      </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="17">
+    <row r="48" spans="1:7" ht="18.600000000000001">
       <c r="A48" s="23"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="37"/>
+      <c r="E48" s="37">
+        <v>5</v>
+      </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:7" ht="17">
+    <row r="49" spans="1:7" ht="18.600000000000001">
       <c r="A49" s="23"/>
       <c r="B49" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="37"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="17">
+    <row r="50" spans="1:7" ht="18.600000000000001">
       <c r="A50" s="23"/>
       <c r="B50" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="E50" s="37"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:7" ht="17">
+    <row r="51" spans="1:7" ht="18.600000000000001">
       <c r="A51" s="5"/>
       <c r="C51" s="5" t="s">
         <v>19</v>
@@ -1378,7 +1458,7 @@
       <c r="E51" s="37"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="17">
+    <row r="52" spans="1:7" ht="18.600000000000001">
       <c r="A52" s="23"/>
       <c r="C52" s="10" t="s">
         <v>16</v>
@@ -1386,7 +1466,7 @@
       <c r="E52" s="37"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" ht="17">
+    <row r="53" spans="1:7" ht="18.600000000000001">
       <c r="A53" s="23"/>
       <c r="C53" s="5" t="s">
         <v>17</v>
@@ -1394,58 +1474,62 @@
       <c r="E53" s="37"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="17">
+    <row r="54" spans="1:7" ht="18.600000000000001">
       <c r="A54" s="23"/>
       <c r="C54" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="37"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" ht="30">
+    <row r="55" spans="1:7" ht="32.4">
       <c r="A55" s="27" t="s">
         <v>35</v>
       </c>
       <c r="B55" s="29"/>
+      <c r="E55" s="37">
+        <v>5</v>
+      </c>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" ht="17">
+    <row r="56" spans="1:7" ht="18.600000000000001">
       <c r="A56" s="23"/>
       <c r="B56" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="37"/>
+      <c r="E56" s="37">
+        <v>5</v>
+      </c>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:7" ht="17">
+    <row r="57" spans="1:7" ht="18.600000000000001">
       <c r="A57" s="23"/>
       <c r="B57" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="37"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" ht="16.2">
       <c r="A58" s="23"/>
       <c r="B58" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="E58" s="37"/>
+    </row>
+    <row r="59" spans="1:7" ht="16.2">
       <c r="A59" s="5"/>
       <c r="C59" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E59" s="37"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" ht="16.2">
       <c r="A60" s="23"/>
       <c r="C60" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E60" s="37"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" ht="16.2">
       <c r="A61" s="23"/>
       <c r="C61" s="5" t="s">
         <v>17</v>
@@ -1457,80 +1541,90 @@
       <c r="C62" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="37"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="23"/>
       <c r="C63" s="5"/>
     </row>
-    <row r="64" spans="1:7" ht="45">
+    <row r="64" spans="1:7" ht="64.8">
       <c r="A64" s="27" t="s">
         <v>53</v>
       </c>
       <c r="B64" s="29"/>
+      <c r="E64" s="37">
+        <v>5</v>
+      </c>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" ht="17">
+    <row r="65" spans="1:7" ht="18.600000000000001">
       <c r="A65" s="27"/>
       <c r="B65" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="37"/>
+      <c r="E65" s="37">
+        <v>5</v>
+      </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" ht="17">
+    <row r="66" spans="1:7" ht="18.600000000000001">
       <c r="A66" s="27"/>
       <c r="B66" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E66" s="37"/>
+      <c r="E66" s="37">
+        <v>4</v>
+      </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" ht="17">
+    <row r="67" spans="1:7" ht="18.600000000000001">
       <c r="A67" s="27"/>
       <c r="B67" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E67" s="37"/>
+      <c r="E67" s="37">
+        <v>4</v>
+      </c>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" ht="17">
+    <row r="68" spans="1:7" ht="18.600000000000001">
       <c r="A68" s="23"/>
       <c r="B68" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="37"/>
+      <c r="E68" s="37">
+        <v>4</v>
+      </c>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:7" ht="17">
+    <row r="69" spans="1:7" ht="18.600000000000001">
       <c r="A69" s="23"/>
       <c r="B69" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E69" s="37"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" ht="16.2">
       <c r="A70" s="23"/>
       <c r="B70" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="E70" s="37"/>
+    </row>
+    <row r="71" spans="1:7" ht="16.2">
       <c r="A71" s="5"/>
       <c r="C71" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E71" s="37"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" ht="16.2">
       <c r="A72" s="23"/>
       <c r="C72" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E72" s="37"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" ht="16.2">
       <c r="A73" s="23"/>
       <c r="C73" s="5" t="s">
         <v>17</v>
@@ -1542,13 +1636,12 @@
       <c r="C74" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="37"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="23"/>
       <c r="C75" s="5"/>
     </row>
-    <row r="76" spans="1:7" ht="30">
+    <row r="76" spans="1:7" ht="31.8">
       <c r="A76" s="26" t="s">
         <v>36</v>
       </c>
@@ -1556,68 +1649,91 @@
         <v>43</v>
       </c>
       <c r="C76" s="5"/>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="E76" s="37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="16.2">
       <c r="A77" s="23"/>
       <c r="B77" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E77" s="37"/>
+      <c r="E77" s="37">
+        <v>4</v>
+      </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="23"/>
-      <c r="B78" s="14"/>
-      <c r="E78" s="37"/>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="B78" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E78" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="16.2">
       <c r="A79" s="23"/>
-      <c r="B79" s="14"/>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="B79" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E79" s="37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="16.2">
       <c r="A80" s="5"/>
+      <c r="B80" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="C80" s="5"/>
       <c r="E80" s="37"/>
       <c r="F80" s="10"/>
     </row>
-    <row r="81" spans="1:7" s="9" customFormat="1">
+    <row r="81" spans="1:7" s="9" customFormat="1" ht="16.2">
       <c r="A81" s="23"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="15"/>
       <c r="E81" s="37"/>
     </row>
-    <row r="82" spans="1:7" ht="17">
+    <row r="82" spans="1:7" ht="18.600000000000001">
       <c r="A82" s="23"/>
       <c r="C82" s="5"/>
-      <c r="E82" s="37"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" ht="17">
+    <row r="83" spans="1:7" ht="30">
       <c r="A83" s="26" t="s">
         <v>38</v>
       </c>
+      <c r="E83" s="37">
+        <v>3</v>
+      </c>
       <c r="F83" s="10"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" ht="45">
+    <row r="84" spans="1:7" ht="48">
       <c r="A84" s="23"/>
       <c r="B84" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E84" s="37"/>
+      <c r="E84" s="37">
+        <v>4</v>
+      </c>
       <c r="F84" s="5"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" ht="30">
+    <row r="85" spans="1:7" ht="32.4">
       <c r="A85" s="23"/>
       <c r="B85" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E85" s="37"/>
+      <c r="E85" s="37">
+        <v>5</v>
+      </c>
       <c r="F85" s="10"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" ht="30">
+    <row r="86" spans="1:7" ht="32.4">
       <c r="A86" s="23"/>
       <c r="B86" s="5" t="s">
         <v>57</v>
@@ -1626,7 +1742,7 @@
       <c r="F86" s="5"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7" ht="30">
+    <row r="87" spans="1:7" ht="32.4">
       <c r="A87" s="23"/>
       <c r="B87" s="10" t="s">
         <v>41</v>
@@ -1635,34 +1751,39 @@
       <c r="F87" s="10"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" ht="17">
+    <row r="88" spans="1:7" ht="18.600000000000001">
       <c r="A88" s="23"/>
       <c r="B88" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E88" s="37"/>
+      <c r="E88" s="33">
+        <v>4</v>
+      </c>
       <c r="F88" s="5"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" ht="30">
+    <row r="89" spans="1:7" ht="48">
       <c r="B89" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" ht="17">
+    <row r="90" spans="1:7" ht="18.600000000000001">
+      <c r="E90" s="40"/>
       <c r="F90" s="10"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" ht="17">
+    <row r="91" spans="1:7" ht="18.600000000000001">
       <c r="A91" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="40"/>
+      <c r="E91" s="40">
+        <v>5</v>
+      </c>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:7" ht="30">
+    <row r="92" spans="1:7" ht="32.4">
       <c r="A92" s="23"/>
       <c r="B92" s="5" t="s">
         <v>58</v>
@@ -1671,7 +1792,7 @@
       <c r="E92" s="40"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:7" ht="45">
+    <row r="93" spans="1:7" ht="63.6">
       <c r="A93" s="23"/>
       <c r="B93" s="5" t="s">
         <v>7</v>
@@ -1683,7 +1804,7 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:E15 D28:E31 E40:E49 E51:E54 E56:E57 E59:E62 E77:E78 E80:E82 D23:D26 E71:E74 E20:E26 E35:E38 E65:E69 E84:E88">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28:D31 D23:D26 E11:E14 E27:E30 E39:E48 E50:E53 E55:E56 E58:E61 E76:E77 E79:E81 E70:E73 E19:E25 E34:E37 E64:E68 E83:E87" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$F$1:$F$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/Self Assessment Form COM4510-COM6510.xlsx
+++ b/Self Assessment Form COM4510-COM6510.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Druid\Documents\CSSLPAutSem\SDfMD\com6510-mobile-devices-final-assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4B6920-68FA-47D6-A3F3-C51B994F164F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA33C0B-A848-48B6-831B-9A54F31BB39B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="14796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,9 +211,6 @@
     <t>Akshay Rajendra Deshpande</t>
   </si>
   <si>
-    <t>Wenbo Liu</t>
-  </si>
-  <si>
     <t>Search for maps</t>
   </si>
   <si>
@@ -221,6 +218,9 @@
   </si>
   <si>
     <t>Other metadata, along with edit</t>
+  </si>
+  <si>
+    <t>Wenbo Yin</t>
   </si>
 </sst>
 </file>
@@ -949,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6"/>
@@ -1023,7 +1023,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="19"/>
@@ -1665,7 +1665,7 @@
     <row r="78" spans="1:7">
       <c r="A78" s="23"/>
       <c r="B78" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E78" s="33">
         <v>5</v>
@@ -1674,7 +1674,7 @@
     <row r="79" spans="1:7" ht="16.2">
       <c r="A79" s="23"/>
       <c r="B79" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E79" s="37">
         <v>4</v>
@@ -1683,7 +1683,7 @@
     <row r="80" spans="1:7" ht="16.2">
       <c r="A80" s="5"/>
       <c r="B80" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C80" s="5"/>
       <c r="E80" s="37"/>

--- a/Self Assessment Form COM4510-COM6510.xlsx
+++ b/Self Assessment Form COM4510-COM6510.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Druid\Documents\CSSLPAutSem\SDfMD\com6510-mobile-devices-final-assignment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA33C0B-A848-48B6-831B-9A54F31BB39B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="14796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t>Comments</t>
   </si>
@@ -203,31 +197,13 @@
   </si>
   <si>
     <t>Code documentation: JavaDoc (in-line commenting, javadoc)</t>
-  </si>
-  <si>
-    <t>Mangesh Hemant Hambarde</t>
-  </si>
-  <si>
-    <t>Akshay Rajendra Deshpande</t>
-  </si>
-  <si>
-    <t>Search for maps</t>
-  </si>
-  <si>
-    <t>Thumbnail list for maps</t>
-  </si>
-  <si>
-    <t>Other metadata, along with edit</t>
-  </si>
-  <si>
-    <t>Wenbo Yin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -517,7 +493,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="26">
-    <cellStyle name="Default 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -614,14 +590,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -946,27 +914,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25" style="7" customWidth="1"/>
     <col min="2" max="2" width="47.33203125" style="10" customWidth="1"/>
     <col min="3" max="3" width="45.33203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="55.77734375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="26.77734375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="15" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="55.83203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" style="7" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" style="7" customWidth="1"/>
-    <col min="9" max="252" width="9.109375" style="7" customWidth="1"/>
-    <col min="253" max="253" width="8.77734375" style="7"/>
-    <col min="254" max="254" width="9.109375" style="7" customWidth="1"/>
-    <col min="255" max="16384" width="8.77734375" style="7"/>
+    <col min="9" max="252" width="9.1640625" style="7" customWidth="1"/>
+    <col min="253" max="253" width="8.83203125" style="7"/>
+    <col min="254" max="254" width="9.1640625" style="7" customWidth="1"/>
+    <col min="255" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256">
@@ -988,9 +956,7 @@
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="19"/>
       <c r="E2" s="32"/>
@@ -1005,9 +971,7 @@
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>60</v>
-      </c>
+      <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="19"/>
       <c r="E3" s="32"/>
@@ -1022,9 +986,7 @@
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="19"/>
       <c r="E4" s="32"/>
@@ -1044,7 +1006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="2" customFormat="1" ht="18.600000000000001">
+    <row r="6" spans="1:256" s="2" customFormat="1" ht="17">
       <c r="A6" s="24"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -1055,7 +1017,7 @@
       <c r="IU6" s="7"/>
       <c r="IV6" s="7"/>
     </row>
-    <row r="7" spans="1:256" s="2" customFormat="1" ht="18.600000000000001">
+    <row r="7" spans="1:256" s="2" customFormat="1" ht="17">
       <c r="A7" s="24"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1066,11 +1028,11 @@
       <c r="IU7" s="7"/>
       <c r="IV7" s="7"/>
     </row>
-    <row r="8" spans="1:256" ht="18.600000000000001">
+    <row r="8" spans="1:256" ht="17">
       <c r="A8" s="23"/>
       <c r="E8" s="35"/>
     </row>
-    <row r="9" spans="1:256" s="8" customFormat="1" ht="167.4">
+    <row r="9" spans="1:256" s="8" customFormat="1" ht="136">
       <c r="A9" s="24" t="s">
         <v>8</v>
       </c>
@@ -1086,114 +1048,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" ht="18.600000000000001">
+    <row r="10" spans="1:256" ht="17">
       <c r="A10" s="23"/>
       <c r="E10" s="36"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:256" ht="18.600000000000001">
+    <row r="11" spans="1:256" ht="17">
       <c r="A11" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="37">
-        <v>5</v>
-      </c>
+      <c r="E11" s="37"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:256" ht="94.2">
+    <row r="12" spans="1:256" ht="75">
       <c r="A12" s="23"/>
       <c r="B12" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="E12" s="37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:256" ht="94.8">
+      <c r="E12" s="37"/>
+    </row>
+    <row r="13" spans="1:256" ht="90">
       <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="E13" s="37">
-        <v>3</v>
-      </c>
+      <c r="E13" s="37"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:256" ht="32.4">
+    <row r="14" spans="1:256" ht="30">
       <c r="A14" s="23"/>
       <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="E14" s="37">
-        <v>5</v>
-      </c>
+      <c r="E14" s="37"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:256" ht="63.6">
+    <row r="15" spans="1:256" ht="45">
       <c r="A15" s="23"/>
       <c r="B15" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="5"/>
+      <c r="E15" s="37"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:256" ht="18.600000000000001">
+    <row r="16" spans="1:256" ht="17">
       <c r="A16" s="23"/>
-      <c r="E16" s="38"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="18">
+    <row r="17" spans="1:8" ht="17">
       <c r="A17" s="23"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="18.600000000000001">
+    <row r="18" spans="1:8" ht="17">
       <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="36"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="18.600000000000001">
+    <row r="19" spans="1:8" ht="17">
       <c r="A19" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="37">
-        <v>5</v>
-      </c>
+      <c r="E19" s="36"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="44.4">
+    <row r="20" spans="1:8" ht="27">
       <c r="A20" s="26" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="37">
-        <v>5</v>
-      </c>
+      <c r="E20" s="37"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="18.600000000000001">
+    <row r="21" spans="1:8" ht="17">
       <c r="A21" s="28"/>
       <c r="B21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="37">
-        <v>5</v>
-      </c>
+      <c r="E21" s="37"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="44.4">
+    <row r="22" spans="1:8" ht="40">
       <c r="A22" s="30" t="s">
         <v>28</v>
       </c>
@@ -1201,64 +1149,56 @@
         <v>40</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="E22" s="37">
-        <v>5</v>
-      </c>
+      <c r="E22" s="37"/>
       <c r="G22" s="3"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="32.4">
+    <row r="23" spans="1:8" ht="30">
       <c r="A23" s="23"/>
       <c r="B23" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="17"/>
-      <c r="E23" s="37">
-        <v>4</v>
-      </c>
+      <c r="E23" s="37"/>
       <c r="G23" s="3"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="18.600000000000001">
+    <row r="24" spans="1:8" ht="17">
       <c r="A24" s="23"/>
       <c r="B24" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="17"/>
-      <c r="E24" s="37">
-        <v>4</v>
-      </c>
+      <c r="E24" s="37"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="18.600000000000001">
+    <row r="25" spans="1:8" ht="17">
       <c r="A25" s="23"/>
       <c r="B25" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="17"/>
-      <c r="E25" s="37">
-        <v>4</v>
-      </c>
+      <c r="E25" s="37"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="18.600000000000001">
+    <row r="26" spans="1:8" ht="17">
       <c r="A26" s="23"/>
       <c r="B26" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="17"/>
-      <c r="E26" s="31"/>
+      <c r="E26" s="37"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="18.600000000000001">
+    <row r="27" spans="1:8" ht="17">
       <c r="A27" s="23"/>
       <c r="B27" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="37"/>
+      <c r="E27" s="31"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="18.600000000000001">
+    <row r="28" spans="1:8" ht="17">
       <c r="A28" s="5"/>
       <c r="C28" s="5" t="s">
         <v>19</v>
@@ -1267,7 +1207,7 @@
       <c r="E28" s="37"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="18.600000000000001">
+    <row r="29" spans="1:8" ht="17">
       <c r="A29" s="23"/>
       <c r="C29" s="10" t="s">
         <v>16</v>
@@ -1276,7 +1216,7 @@
       <c r="E29" s="37"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="18.600000000000001">
+    <row r="30" spans="1:8" ht="17">
       <c r="A30" s="23"/>
       <c r="C30" s="5" t="s">
         <v>17</v>
@@ -1285,76 +1225,66 @@
       <c r="E30" s="37"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="18.600000000000001">
+    <row r="31" spans="1:8" ht="17">
       <c r="A31" s="23"/>
       <c r="C31" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="17"/>
-      <c r="E31" s="36"/>
+      <c r="E31" s="37"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="18.600000000000001">
+    <row r="32" spans="1:8" ht="17">
+      <c r="E32" s="36"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="16.2">
-      <c r="E33" s="39"/>
-    </row>
-    <row r="34" spans="1:7" ht="32.4">
+    <row r="34" spans="1:7" ht="30">
       <c r="A34" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="37">
-        <v>5</v>
-      </c>
+      <c r="E34" s="39"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="18.600000000000001">
+    <row r="35" spans="1:7" ht="17">
       <c r="A35" s="43"/>
       <c r="B35" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="37">
-        <v>5</v>
-      </c>
+      <c r="E35" s="37"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="18.600000000000001">
+    <row r="36" spans="1:7" ht="17">
       <c r="A36" s="43"/>
       <c r="B36" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="37">
-        <v>5</v>
-      </c>
+      <c r="E36" s="37"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="18.600000000000001">
+    <row r="37" spans="1:7" ht="17">
       <c r="A37" s="23"/>
       <c r="B37" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="37">
-        <v>5</v>
-      </c>
+      <c r="E37" s="37"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="18.600000000000001">
+    <row r="38" spans="1:7" ht="17">
       <c r="A38" s="23"/>
       <c r="B38" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="E38" s="37"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="18.600000000000001">
+    <row r="39" spans="1:7" ht="17">
       <c r="A39" s="23"/>
       <c r="B39" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="37"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="18.600000000000001">
+    <row r="40" spans="1:7" ht="17">
       <c r="A40" s="5"/>
       <c r="C40" s="5" t="s">
         <v>19</v>
@@ -1362,7 +1292,7 @@
       <c r="E40" s="37"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" ht="18.600000000000001">
+    <row r="41" spans="1:7" ht="17">
       <c r="A41" s="23"/>
       <c r="C41" s="10" t="s">
         <v>16</v>
@@ -1370,7 +1300,7 @@
       <c r="E41" s="37"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="18.600000000000001">
+    <row r="42" spans="1:7" ht="17">
       <c r="A42" s="23"/>
       <c r="C42" s="5" t="s">
         <v>17</v>
@@ -1378,7 +1308,7 @@
       <c r="E42" s="37"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" ht="18.600000000000001">
+    <row r="43" spans="1:7" ht="17">
       <c r="A43" s="23"/>
       <c r="C43" s="5" t="s">
         <v>18</v>
@@ -1386,71 +1316,61 @@
       <c r="E43" s="37"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="44.4">
+    <row r="44" spans="1:7" ht="27">
       <c r="A44" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="37">
-        <v>5</v>
-      </c>
+      <c r="E44" s="37"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="18.600000000000001">
+    <row r="45" spans="1:7" ht="17">
       <c r="A45" s="42"/>
       <c r="B45" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="37">
-        <v>4</v>
-      </c>
+      <c r="E45" s="37"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="18.600000000000001">
+    <row r="46" spans="1:7" ht="17">
       <c r="A46" s="42"/>
       <c r="B46" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="37">
-        <v>5</v>
-      </c>
+      <c r="E46" s="37"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:7" ht="18.600000000000001">
+    <row r="47" spans="1:7" ht="17">
       <c r="A47" s="42"/>
       <c r="B47" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="37">
-        <v>4</v>
-      </c>
+      <c r="E47" s="37"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="18.600000000000001">
+    <row r="48" spans="1:7" ht="17">
       <c r="A48" s="23"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="37">
-        <v>5</v>
-      </c>
+      <c r="E48" s="37"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:7" ht="18.600000000000001">
+    <row r="49" spans="1:7" ht="17">
       <c r="A49" s="23"/>
       <c r="B49" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="E49" s="37"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="18.600000000000001">
+    <row r="50" spans="1:7" ht="17">
       <c r="A50" s="23"/>
       <c r="B50" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="37"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:7" ht="18.600000000000001">
+    <row r="51" spans="1:7" ht="17">
       <c r="A51" s="5"/>
       <c r="C51" s="5" t="s">
         <v>19</v>
@@ -1458,7 +1378,7 @@
       <c r="E51" s="37"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="18.600000000000001">
+    <row r="52" spans="1:7" ht="17">
       <c r="A52" s="23"/>
       <c r="C52" s="10" t="s">
         <v>16</v>
@@ -1466,7 +1386,7 @@
       <c r="E52" s="37"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" ht="18.600000000000001">
+    <row r="53" spans="1:7" ht="17">
       <c r="A53" s="23"/>
       <c r="C53" s="5" t="s">
         <v>17</v>
@@ -1474,62 +1394,58 @@
       <c r="E53" s="37"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="18.600000000000001">
+    <row r="54" spans="1:7" ht="17">
       <c r="A54" s="23"/>
       <c r="C54" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="E54" s="37"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" ht="32.4">
+    <row r="55" spans="1:7" ht="30">
       <c r="A55" s="27" t="s">
         <v>35</v>
       </c>
       <c r="B55" s="29"/>
-      <c r="E55" s="37">
-        <v>5</v>
-      </c>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" ht="18.600000000000001">
+    <row r="56" spans="1:7" ht="17">
       <c r="A56" s="23"/>
       <c r="B56" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="37">
-        <v>5</v>
-      </c>
+      <c r="E56" s="37"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:7" ht="18.600000000000001">
+    <row r="57" spans="1:7" ht="17">
       <c r="A57" s="23"/>
       <c r="B57" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="E57" s="37"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:7" ht="16.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="23"/>
       <c r="B58" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="37"/>
-    </row>
-    <row r="59" spans="1:7" ht="16.2">
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="5"/>
       <c r="C59" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E59" s="37"/>
     </row>
-    <row r="60" spans="1:7" ht="16.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="23"/>
       <c r="C60" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E60" s="37"/>
     </row>
-    <row r="61" spans="1:7" ht="16.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="23"/>
       <c r="C61" s="5" t="s">
         <v>17</v>
@@ -1541,90 +1457,80 @@
       <c r="C62" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="E62" s="37"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="23"/>
       <c r="C63" s="5"/>
     </row>
-    <row r="64" spans="1:7" ht="64.8">
+    <row r="64" spans="1:7" ht="45">
       <c r="A64" s="27" t="s">
         <v>53</v>
       </c>
       <c r="B64" s="29"/>
-      <c r="E64" s="37">
-        <v>5</v>
-      </c>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" ht="18.600000000000001">
+    <row r="65" spans="1:7" ht="17">
       <c r="A65" s="27"/>
       <c r="B65" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="37">
-        <v>5</v>
-      </c>
+      <c r="E65" s="37"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" ht="18.600000000000001">
+    <row r="66" spans="1:7" ht="17">
       <c r="A66" s="27"/>
       <c r="B66" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E66" s="37">
-        <v>4</v>
-      </c>
+      <c r="E66" s="37"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" ht="18.600000000000001">
+    <row r="67" spans="1:7" ht="17">
       <c r="A67" s="27"/>
       <c r="B67" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E67" s="37">
-        <v>4</v>
-      </c>
+      <c r="E67" s="37"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" ht="18.600000000000001">
+    <row r="68" spans="1:7" ht="17">
       <c r="A68" s="23"/>
       <c r="B68" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="37">
-        <v>4</v>
-      </c>
+      <c r="E68" s="37"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:7" ht="18.600000000000001">
+    <row r="69" spans="1:7" ht="17">
       <c r="A69" s="23"/>
       <c r="B69" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="E69" s="37"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:7" ht="16.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="23"/>
       <c r="B70" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E70" s="37"/>
-    </row>
-    <row r="71" spans="1:7" ht="16.2">
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="5"/>
       <c r="C71" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E71" s="37"/>
     </row>
-    <row r="72" spans="1:7" ht="16.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="23"/>
       <c r="C72" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E72" s="37"/>
     </row>
-    <row r="73" spans="1:7" ht="16.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="23"/>
       <c r="C73" s="5" t="s">
         <v>17</v>
@@ -1636,12 +1542,13 @@
       <c r="C74" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="E74" s="37"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="23"/>
       <c r="C75" s="5"/>
     </row>
-    <row r="76" spans="1:7" ht="31.8">
+    <row r="76" spans="1:7" ht="30">
       <c r="A76" s="26" t="s">
         <v>36</v>
       </c>
@@ -1649,91 +1556,68 @@
         <v>43</v>
       </c>
       <c r="C76" s="5"/>
-      <c r="E76" s="37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="16.2">
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="23"/>
       <c r="B77" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E77" s="37">
-        <v>4</v>
-      </c>
+      <c r="E77" s="37"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="23"/>
-      <c r="B78" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E78" s="33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="16.2">
+      <c r="B78" s="14"/>
+      <c r="E78" s="37"/>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="23"/>
-      <c r="B79" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E79" s="37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="16.2">
+      <c r="B79" s="14"/>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="5"/>
-      <c r="B80" s="14" t="s">
-        <v>63</v>
-      </c>
       <c r="C80" s="5"/>
       <c r="E80" s="37"/>
       <c r="F80" s="10"/>
     </row>
-    <row r="81" spans="1:7" s="9" customFormat="1" ht="16.2">
+    <row r="81" spans="1:7" s="9" customFormat="1">
       <c r="A81" s="23"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="15"/>
       <c r="E81" s="37"/>
     </row>
-    <row r="82" spans="1:7" ht="18.600000000000001">
+    <row r="82" spans="1:7" ht="17">
       <c r="A82" s="23"/>
       <c r="C82" s="5"/>
+      <c r="E82" s="37"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" ht="30">
+    <row r="83" spans="1:7" ht="17">
       <c r="A83" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E83" s="37">
-        <v>3</v>
-      </c>
       <c r="F83" s="10"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" ht="48">
+    <row r="84" spans="1:7" ht="45">
       <c r="A84" s="23"/>
       <c r="B84" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E84" s="37">
-        <v>4</v>
-      </c>
+      <c r="E84" s="37"/>
       <c r="F84" s="5"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" ht="32.4">
+    <row r="85" spans="1:7" ht="30">
       <c r="A85" s="23"/>
       <c r="B85" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E85" s="37">
-        <v>5</v>
-      </c>
+      <c r="E85" s="37"/>
       <c r="F85" s="10"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" ht="32.4">
+    <row r="86" spans="1:7" ht="30">
       <c r="A86" s="23"/>
       <c r="B86" s="5" t="s">
         <v>57</v>
@@ -1742,7 +1626,7 @@
       <c r="F86" s="5"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7" ht="32.4">
+    <row r="87" spans="1:7" ht="30">
       <c r="A87" s="23"/>
       <c r="B87" s="10" t="s">
         <v>41</v>
@@ -1751,39 +1635,34 @@
       <c r="F87" s="10"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" ht="18.600000000000001">
+    <row r="88" spans="1:7" ht="17">
       <c r="A88" s="23"/>
       <c r="B88" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E88" s="33">
-        <v>4</v>
-      </c>
+      <c r="E88" s="37"/>
       <c r="F88" s="5"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" ht="48">
+    <row r="89" spans="1:7" ht="30">
       <c r="B89" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" ht="18.600000000000001">
-      <c r="E90" s="40"/>
+    <row r="90" spans="1:7" ht="17">
       <c r="F90" s="10"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" ht="18.600000000000001">
+    <row r="91" spans="1:7" ht="17">
       <c r="A91" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="40">
-        <v>5</v>
-      </c>
+      <c r="E91" s="40"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:7" ht="32.4">
+    <row r="92" spans="1:7" ht="30">
       <c r="A92" s="23"/>
       <c r="B92" s="5" t="s">
         <v>58</v>
@@ -1792,7 +1671,7 @@
       <c r="E92" s="40"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:7" ht="63.6">
+    <row r="93" spans="1:7" ht="45">
       <c r="A93" s="23"/>
       <c r="B93" s="5" t="s">
         <v>7</v>
@@ -1804,7 +1683,7 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28:D31 D23:D26 E11:E14 E27:E30 E39:E48 E50:E53 E55:E56 E58:E61 E76:E77 E79:E81 E70:E73 E19:E25 E34:E37 E64:E68 E83:E87" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:E15 D28:E31 E40:E49 E51:E54 E56:E57 E59:E62 E77:E78 E80:E82 D23:D26 E71:E74 E20:E26 E35:E38 E65:E69 E84:E88">
       <formula1>$F$1:$F$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/Self Assessment Form COM4510-COM6510.xlsx
+++ b/Self Assessment Form COM4510-COM6510.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10115"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mangesh/ws/uni/md/assignment/com6510-mobile-devices-final-assignment/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CB9646-51A3-7B4B-BAE0-8C8CF61DF12A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14800"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
   <si>
     <t>Comments</t>
   </si>
@@ -197,13 +203,82 @@
   </si>
   <si>
     <t>Code documentation: JavaDoc (in-line commenting, javadoc)</t>
+  </si>
+  <si>
+    <t>TeamAlwaysLate</t>
+  </si>
+  <si>
+    <t>Mangesh Hemant Hambarde</t>
+  </si>
+  <si>
+    <t>Akshay Rajendra Deshpande</t>
+  </si>
+  <si>
+    <t>Wenbo Yin</t>
+  </si>
+  <si>
+    <t>No problems.</t>
+  </si>
+  <si>
+    <t>Adhering to MVVM.</t>
+  </si>
+  <si>
+    <t>Filter on map view</t>
+  </si>
+  <si>
+    <t>Detect deleted and modified images</t>
+  </si>
+  <si>
+    <t>Tried to use camelCase in java files. Layout files not very consistent.</t>
+  </si>
+  <si>
+    <t>Not great.</t>
+  </si>
+  <si>
+    <t>Utility code separate etc</t>
+  </si>
+  <si>
+    <t>Fast loading using fully async tasks.</t>
+  </si>
+  <si>
+    <t>Simple and very good.</t>
+  </si>
+  <si>
+    <t>Could have been better.</t>
+  </si>
+  <si>
+    <t>small functionality</t>
+  </si>
+  <si>
+    <t>Could have been better</t>
+  </si>
+  <si>
+    <t>Useful</t>
+  </si>
+  <si>
+    <t>Useful in cluttered maps</t>
+  </si>
+  <si>
+    <t>Happy with UI.</t>
+  </si>
+  <si>
+    <t>&gt; API 23</t>
+  </si>
+  <si>
+    <t>flicking pictures on scrolling (first run)</t>
+  </si>
+  <si>
+    <t>could have been better</t>
+  </si>
+  <si>
+    <t>not bad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -299,6 +374,35 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -376,7 +480,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -491,9 +595,20 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="26">
-    <cellStyle name="Default 1" xfId="1"/>
+    <cellStyle name="Default 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -590,6 +705,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -914,14 +1037,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" style="7" customWidth="1"/>
     <col min="2" max="2" width="47.33203125" style="10" customWidth="1"/>
@@ -937,11 +1060,13 @@
     <col min="255" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256">
+    <row r="1" spans="1:256" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="C1" s="5"/>
       <c r="D1" s="16"/>
       <c r="E1" s="31"/>
@@ -952,11 +1077,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:256">
+    <row r="2" spans="1:256" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="C2" s="11"/>
       <c r="D2" s="19"/>
       <c r="E2" s="32"/>
@@ -967,11 +1094,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:256">
+    <row r="3" spans="1:256" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="C3" s="11"/>
       <c r="D3" s="19"/>
       <c r="E3" s="32"/>
@@ -982,11 +1111,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:256">
+    <row r="4" spans="1:256" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="C4" s="11"/>
       <c r="D4" s="19"/>
       <c r="E4" s="32"/>
@@ -997,7 +1128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:256">
+    <row r="5" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
       <c r="F5" s="7">
         <v>5</v>
@@ -1006,7 +1137,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="2" customFormat="1" ht="17">
+    <row r="6" spans="1:256" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -1017,7 +1148,7 @@
       <c r="IU6" s="7"/>
       <c r="IV6" s="7"/>
     </row>
-    <row r="7" spans="1:256" s="2" customFormat="1" ht="17">
+    <row r="7" spans="1:256" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1028,11 +1159,11 @@
       <c r="IU7" s="7"/>
       <c r="IV7" s="7"/>
     </row>
-    <row r="8" spans="1:256" ht="17">
+    <row r="8" spans="1:256" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="E8" s="35"/>
     </row>
-    <row r="9" spans="1:256" s="8" customFormat="1" ht="136">
+    <row r="9" spans="1:256" s="8" customFormat="1" ht="140" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>8</v>
       </c>
@@ -1048,67 +1179,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:256" ht="17">
+    <row r="10" spans="1:256" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="E10" s="36"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:256" ht="17">
+    <row r="11" spans="1:256" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="37"/>
+      <c r="E11" s="37">
+        <v>4</v>
+      </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:256" ht="75">
+    <row r="12" spans="1:256" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="E12" s="37"/>
-    </row>
-    <row r="13" spans="1:256" ht="90">
+      <c r="E12" s="37">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:256" ht="108" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:256" ht="30">
+      <c r="E13" s="37">
+        <v>4</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:256" ht="36" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:256" ht="45">
+      <c r="E14" s="37">
+        <v>3</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:256" ht="72" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="E15" s="37"/>
+      <c r="E15" s="37">
+        <v>4</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:256" ht="17">
+    <row r="16" spans="1:256" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="17">
+    <row r="17" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="E17" s="38"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="17">
+    <row r="18" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
@@ -1116,32 +1264,42 @@
       <c r="G18" s="3"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="17">
+    <row r="19" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="36"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="27">
+    <row r="20" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="37"/>
+      <c r="E20" s="37">
+        <v>4</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>69</v>
+      </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="17">
+    <row r="21" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="28"/>
       <c r="B21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="37"/>
+      <c r="E21" s="37">
+        <v>5</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="40">
+    <row r="22" spans="1:8" ht="49" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>28</v>
       </c>
@@ -1149,48 +1307,64 @@
         <v>40</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="E22" s="37"/>
+      <c r="E22" s="37">
+        <v>5</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="30">
+    <row r="23" spans="1:8" ht="36" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="17"/>
-      <c r="E23" s="37"/>
+      <c r="E23" s="37">
+        <v>5</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="17">
+    <row r="24" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="17"/>
-      <c r="E24" s="37"/>
+      <c r="E24" s="37">
+        <v>5</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>70</v>
+      </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="17">
+    <row r="25" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="17"/>
-      <c r="E25" s="37"/>
+      <c r="E25" s="37">
+        <v>4</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>72</v>
+      </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="17">
+    <row r="26" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="17"/>
-      <c r="E26" s="37"/>
+      <c r="E26" s="37">
+        <v>5</v>
+      </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="17">
+    <row r="27" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="14" t="s">
         <v>14</v>
@@ -1198,93 +1372,111 @@
       <c r="E27" s="31"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="17">
+    <row r="28" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="C28" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="17"/>
-      <c r="E28" s="37"/>
+      <c r="E28" s="37">
+        <v>5</v>
+      </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="17">
+    <row r="29" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="C29" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="17"/>
-      <c r="E29" s="37"/>
+      <c r="E29" s="37">
+        <v>5</v>
+      </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="17">
+    <row r="30" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="C30" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="17"/>
-      <c r="E30" s="37"/>
+      <c r="E30" s="37">
+        <v>5</v>
+      </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="17">
+    <row r="31" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="C31" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="17"/>
-      <c r="E31" s="37"/>
+      <c r="E31" s="37">
+        <v>5</v>
+      </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="17">
+    <row r="32" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="E32" s="36"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="30">
+    <row r="34" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
         <v>31</v>
       </c>
       <c r="E34" s="39"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="17">
+    <row r="35" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="43"/>
       <c r="B35" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="37"/>
+      <c r="E35" s="37">
+        <v>5</v>
+      </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="17">
+    <row r="36" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="43"/>
       <c r="B36" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="37"/>
+      <c r="E36" s="37">
+        <v>5</v>
+      </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="17">
+    <row r="37" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" ht="17">
+      <c r="E37" s="37">
+        <v>4</v>
+      </c>
+      <c r="F37" s="44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="37"/>
+      <c r="E38" s="37">
+        <v>5</v>
+      </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="17">
+    <row r="39" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="17">
+    <row r="40" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="C40" s="5" t="s">
         <v>19</v>
@@ -1292,263 +1484,324 @@
       <c r="E40" s="37"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" ht="17">
+    <row r="41" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="C41" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="37"/>
+      <c r="E41" s="37">
+        <v>4</v>
+      </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="17">
+    <row r="42" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="C42" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="37"/>
+      <c r="E42" s="37">
+        <v>5</v>
+      </c>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" ht="17">
+    <row r="43" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="C43" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="37"/>
+      <c r="E43" s="37">
+        <v>4</v>
+      </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="27">
+    <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>32</v>
       </c>
       <c r="E44" s="37"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="17">
+    <row r="45" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="42"/>
       <c r="B45" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="37"/>
+      <c r="E45" s="37">
+        <v>5</v>
+      </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="17">
+    <row r="46" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="42"/>
       <c r="B46" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="37"/>
+      <c r="E46" s="37">
+        <v>5</v>
+      </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:7" ht="17">
+    <row r="47" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="42"/>
       <c r="B47" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="37"/>
+      <c r="E47" s="37">
+        <v>5</v>
+      </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="17">
+    <row r="48" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="37"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" ht="17">
+      <c r="E48" s="37">
+        <v>5</v>
+      </c>
+      <c r="F48" s="44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
       <c r="B49" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="37"/>
+      <c r="E49" s="37">
+        <v>5</v>
+      </c>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="17">
+    <row r="50" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:7" ht="17">
+    <row r="51" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="C51" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="37"/>
+      <c r="E51" s="37">
+        <v>5</v>
+      </c>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="17">
+    <row r="52" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="C52" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="37"/>
+      <c r="E52" s="37">
+        <v>5</v>
+      </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" ht="17">
+    <row r="53" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="C53" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E53" s="37"/>
+      <c r="E53" s="37">
+        <v>5</v>
+      </c>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="17">
+    <row r="54" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="C54" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="37"/>
+      <c r="E54" s="37">
+        <v>5</v>
+      </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" ht="30">
+    <row r="55" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A55" s="27" t="s">
         <v>35</v>
       </c>
       <c r="B55" s="29"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" ht="17">
+    <row r="56" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="37"/>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:7" ht="17">
+      <c r="E56" s="37">
+        <v>5</v>
+      </c>
+      <c r="F56" s="47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="37"/>
+      <c r="E57" s="37">
+        <v>5</v>
+      </c>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="C59" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E59" s="37"/>
-    </row>
-    <row r="60" spans="1:7">
+    </row>
+    <row r="60" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="C60" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="37"/>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="E60" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="C61" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="37"/>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="E61" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="28"/>
       <c r="C62" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="37"/>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="E62" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="C63" s="5"/>
     </row>
-    <row r="64" spans="1:7" ht="45">
+    <row r="64" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
         <v>53</v>
       </c>
       <c r="B64" s="29"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" ht="17">
+    <row r="65" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="27"/>
       <c r="B65" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="37"/>
+      <c r="E65" s="37">
+        <v>4</v>
+      </c>
+      <c r="F65" s="46" t="s">
+        <v>74</v>
+      </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" ht="17">
+    <row r="66" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="27"/>
       <c r="B66" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E66" s="37"/>
+      <c r="E66" s="37">
+        <v>5</v>
+      </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" ht="17">
+    <row r="67" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="27"/>
       <c r="B67" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E67" s="37"/>
+      <c r="E67" s="37">
+        <v>4</v>
+      </c>
+      <c r="F67" s="46" t="s">
+        <v>74</v>
+      </c>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" ht="17">
+    <row r="68" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="37"/>
+      <c r="E68" s="37">
+        <v>4</v>
+      </c>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:7" ht="17">
+    <row r="69" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E69" s="37"/>
+      <c r="E69" s="37">
+        <v>5</v>
+      </c>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="C71" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E71" s="37"/>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="E71" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="C72" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="37"/>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="E72" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
       <c r="C73" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E73" s="37"/>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="E73" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="28"/>
       <c r="C74" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="37"/>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="E74" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
       <c r="C75" s="5"/>
     </row>
-    <row r="76" spans="1:7" ht="30">
+    <row r="76" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A76" s="26" t="s">
         <v>36</v>
       </c>
@@ -1557,85 +1810,113 @@
       </c>
       <c r="C76" s="5"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="23"/>
       <c r="B77" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E77" s="37"/>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="E77" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
       <c r="B78" s="14"/>
       <c r="E78" s="37"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
+      <c r="B80" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="C80" s="5"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="10"/>
-    </row>
-    <row r="81" spans="1:7" s="9" customFormat="1">
+      <c r="E80" s="37">
+        <v>5</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
-      <c r="B81" s="10"/>
+      <c r="B81" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="C81" s="10"/>
       <c r="D81" s="15"/>
-      <c r="E81" s="37"/>
-    </row>
-    <row r="82" spans="1:7" ht="17">
+      <c r="E81" s="37">
+        <v>5</v>
+      </c>
+      <c r="F81" s="48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="C82" s="5"/>
       <c r="E82" s="37"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" ht="17">
+    <row r="83" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
         <v>38</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" ht="45">
+    <row r="84" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E84" s="37"/>
-      <c r="F84" s="5"/>
+      <c r="E84" s="37">
+        <v>5</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" ht="30">
+    <row r="85" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A85" s="23"/>
       <c r="B85" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E85" s="37"/>
+      <c r="E85" s="37">
+        <v>5</v>
+      </c>
       <c r="F85" s="10"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" ht="30">
+    <row r="86" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
       <c r="B86" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E86" s="37"/>
-      <c r="F86" s="5"/>
+      <c r="E86" s="37">
+        <v>5</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7" ht="30">
+    <row r="87" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A87" s="23"/>
       <c r="B87" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E87" s="37"/>
+      <c r="E87" s="37">
+        <v>5</v>
+      </c>
       <c r="F87" s="10"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" ht="17">
+    <row r="88" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="5" t="s">
         <v>20</v>
@@ -1644,46 +1925,59 @@
       <c r="F88" s="5"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" ht="30">
+    <row r="89" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F89" s="5"/>
+      <c r="E89" s="33">
+        <v>4</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" ht="17">
+    <row r="90" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="F90" s="10"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" ht="17">
+    <row r="91" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E91" s="40"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:7" ht="30">
+    <row r="92" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A92" s="23"/>
       <c r="B92" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C92" s="5"/>
-      <c r="E92" s="40"/>
-      <c r="F92" s="3"/>
-    </row>
-    <row r="93" spans="1:7" ht="45">
+      <c r="E92" s="40">
+        <v>3</v>
+      </c>
+      <c r="F92" s="47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A93" s="23"/>
       <c r="B93" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C93" s="5"/>
-      <c r="E93" s="40"/>
-      <c r="F93" s="3"/>
+      <c r="E93" s="40">
+        <v>4</v>
+      </c>
+      <c r="F93" s="47" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:E15 D28:E31 E40:E49 E51:E54 E56:E57 E59:E62 E77:E78 E80:E82 D23:D26 E71:E74 E20:E26 E35:E38 E65:E69 E84:E88">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:E15 D28:E31 E40:E49 E51:E54 E56:E57 E77:E78 E80:E82 D23:D26 E71:E74 E20:E26 E35:E38 E65:E69 E84:E88 E60:E62" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$F$1:$F$5</formula1>
     </dataValidation>
   </dataValidations>
